--- a/LoginData.xlsx
+++ b/LoginData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Admin</t>
   </si>
@@ -60,13 +60,49 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,8 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +452,7 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>11</v>
       </c>
     </row>
@@ -421,7 +463,7 @@
       <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="2">
         <v>12</v>
       </c>
     </row>
@@ -432,7 +474,7 @@
       <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s" s="3">
         <v>12</v>
       </c>
     </row>
@@ -443,7 +485,7 @@
       <c r="B4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -454,7 +496,7 @@
       <c r="B5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s" s="5">
         <v>12</v>
       </c>
     </row>
@@ -465,7 +507,7 @@
       <c r="B6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s" s="6">
         <v>12</v>
       </c>
     </row>
